--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1583"/>
+  <dimension ref="A1:R1584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89117,7 +89117,63 @@
       <c r="Q1583" t="n">
         <v>0</v>
       </c>
-      <c r="R1583" t="inlineStr"/>
+      <c r="R1583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>698</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>698</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>645</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>649.3499755859375</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>649.3499755859375</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>31217</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1584"/>
+  <dimension ref="A1:R1591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88773,7 +88773,7 @@
         <v>23</v>
       </c>
       <c r="O1577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1577" t="n">
         <v>0</v>
@@ -89173,7 +89173,387 @@
       <c r="Q1584" t="n">
         <v>0</v>
       </c>
-      <c r="R1584" t="inlineStr"/>
+      <c r="R1584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>651.4000244140625</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>669.9500122070312</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>622.0499877929688</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>19619</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>665</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>644.0499877929688</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>662.5499877929688</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>662.5499877929688</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>15719</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>674</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>681.9500122070312</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>662.6500244140625</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>678.0999755859375</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>678.0999755859375</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>22326</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>683.5999755859375</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>689.9500122070312</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>681.7999877929688</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>681.7999877929688</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>10121</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>697</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>697</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>674.0999755859375</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>676.1500244140625</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>676.1500244140625</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>18699</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>693</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>693</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>651.0499877929688</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>12355</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>690</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>690.9500122070312</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>654.5</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>673.6500244140625</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>673.6500244140625</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>13699</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -89229,7 +89229,9 @@
       <c r="Q1585" t="n">
         <v>0</v>
       </c>
-      <c r="R1585" t="inlineStr"/>
+      <c r="R1585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1586">
       <c r="A1586" s="2" t="n">
@@ -89283,7 +89285,9 @@
       <c r="Q1586" t="n">
         <v>0</v>
       </c>
-      <c r="R1586" t="inlineStr"/>
+      <c r="R1586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1587">
       <c r="A1587" s="2" t="n">
@@ -89337,7 +89341,9 @@
       <c r="Q1587" t="n">
         <v>0</v>
       </c>
-      <c r="R1587" t="inlineStr"/>
+      <c r="R1587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1588">
       <c r="A1588" s="2" t="n">
@@ -89391,7 +89397,9 @@
       <c r="Q1588" t="n">
         <v>2</v>
       </c>
-      <c r="R1588" t="inlineStr"/>
+      <c r="R1588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1589">
       <c r="A1589" s="2" t="n">
@@ -89445,7 +89453,9 @@
       <c r="Q1589" t="n">
         <v>0</v>
       </c>
-      <c r="R1589" t="inlineStr"/>
+      <c r="R1589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1590">
       <c r="A1590" s="2" t="n">
@@ -89499,7 +89509,9 @@
       <c r="Q1590" t="n">
         <v>0</v>
       </c>
-      <c r="R1590" t="inlineStr"/>
+      <c r="R1590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1591">
       <c r="A1591" s="2" t="n">
@@ -89553,7 +89565,9 @@
       <c r="Q1591" t="n">
         <v>0</v>
       </c>
-      <c r="R1591" t="inlineStr"/>
+      <c r="R1591" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1591"/>
+  <dimension ref="A1:R1596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89569,6 +89569,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>678.5</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>678.5</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>640.7999877929688</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>650.2999877929688</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>650.2999877929688</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>26579</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>659.75</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>659.75</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>590.0499877929688</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>601.9000244140625</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>601.9000244140625</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>89085</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>619.3499755859375</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>636</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>592.2000122070312</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>620.4500122070312</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>620.4500122070312</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>72547</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>617.0999755859375</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>631.5499877929688</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>602</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>609.4000244140625</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>609.4000244140625</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>29750</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>615</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>640</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>587</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>597.7999877929688</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>597.7999877929688</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>36601</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1596"/>
+  <dimension ref="A1:R1605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89621,7 +89621,9 @@
       <c r="Q1592" t="n">
         <v>0</v>
       </c>
-      <c r="R1592" t="inlineStr"/>
+      <c r="R1592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
@@ -89675,7 +89677,9 @@
       <c r="Q1593" t="n">
         <v>0</v>
       </c>
-      <c r="R1593" t="inlineStr"/>
+      <c r="R1593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
@@ -89729,7 +89733,9 @@
       <c r="Q1594" t="n">
         <v>0</v>
       </c>
-      <c r="R1594" t="inlineStr"/>
+      <c r="R1594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
@@ -89783,7 +89789,9 @@
       <c r="Q1595" t="n">
         <v>0</v>
       </c>
-      <c r="R1595" t="inlineStr"/>
+      <c r="R1595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
@@ -89837,7 +89845,495 @@
       <c r="Q1596" t="n">
         <v>0</v>
       </c>
-      <c r="R1596" t="inlineStr"/>
+      <c r="R1596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>601</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>616</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>575.0999755859375</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>609.75</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>609.75</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>42435</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>625.5499877929688</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>638.7999877929688</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>612</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>616.75</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>616.75</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>31183</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>630</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>595.0999755859375</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>609.1500244140625</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>609.1500244140625</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>23232</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>617.9500122070312</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>617.9500122070312</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>582.0499877929688</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>596</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>596</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>31156</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>599.8499755859375</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>603.4000244140625</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>590.0999755859375</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>593.2999877929688</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>593.2999877929688</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>14417</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>602</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>605.75</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>583.0999755859375</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>597.6500244140625</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>597.6500244140625</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>17592</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>615</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>585</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>601.4000244140625</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>601.4000244140625</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>22365</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>602.9500122070312</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>610</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>590.0499877929688</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>598.4500122070312</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>598.4500122070312</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>14641</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>610</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>575.0999755859375</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>578.2000122070312</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>578.2000122070312</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>18642</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1605"/>
+  <dimension ref="A1:R1615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89901,7 +89901,9 @@
       <c r="Q1597" t="n">
         <v>0</v>
       </c>
-      <c r="R1597" t="inlineStr"/>
+      <c r="R1597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
@@ -89955,7 +89957,9 @@
       <c r="Q1598" t="n">
         <v>0</v>
       </c>
-      <c r="R1598" t="inlineStr"/>
+      <c r="R1598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
@@ -90009,7 +90013,9 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -90063,7 +90069,9 @@
       <c r="Q1600" t="n">
         <v>0</v>
       </c>
-      <c r="R1600" t="inlineStr"/>
+      <c r="R1600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
@@ -90117,7 +90125,9 @@
       <c r="Q1601" t="n">
         <v>0</v>
       </c>
-      <c r="R1601" t="inlineStr"/>
+      <c r="R1601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
@@ -90171,7 +90181,9 @@
       <c r="Q1602" t="n">
         <v>0</v>
       </c>
-      <c r="R1602" t="inlineStr"/>
+      <c r="R1602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
@@ -90225,7 +90237,9 @@
       <c r="Q1603" t="n">
         <v>0</v>
       </c>
-      <c r="R1603" t="inlineStr"/>
+      <c r="R1603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -90279,7 +90293,9 @@
       <c r="Q1604" t="n">
         <v>0</v>
       </c>
-      <c r="R1604" t="inlineStr"/>
+      <c r="R1604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1605">
       <c r="A1605" s="2" t="n">
@@ -90333,7 +90349,549 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>571</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>599</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>571</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>584.1500244140625</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>584.1500244140625</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>39498</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>592.7000122070312</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>540.2000122070312</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>583.4000244140625</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>583.4000244140625</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>24673</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>583.4000244140625</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>628</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>583.4000244140625</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>617.9500122070312</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>617.9500122070312</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>28585</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>635.5499877929688</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>591</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>596.5499877929688</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>596.5499877929688</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>55946</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>591</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>617.7999877929688</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>590.0999755859375</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>603.9000244140625</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>603.9000244140625</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>38790</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>614</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>592.6500244140625</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>614.5499877929688</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>614.5499877929688</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>23490</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>623.7000122070312</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>624.9000244140625</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>600.2999877929688</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>602.9500122070312</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>602.9500122070312</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>9733</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>614</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>614</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>595.9000244140625</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>595.9000244140625</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>10361</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>604</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>604.2000122070312</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>589.5499877929688</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>595.9500122070312</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>595.9500122070312</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>19921</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>582.1500244140625</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>601</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>582.0999755859375</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>586.3499755859375</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>586.3499755859375</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>22861</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1615"/>
+  <dimension ref="A1:R1620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90405,7 +90405,9 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
@@ -90451,7 +90453,7 @@
         <v>30</v>
       </c>
       <c r="O1607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1607" t="n">
         <v>0</v>
@@ -90459,7 +90461,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90513,7 +90517,9 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90567,7 +90573,9 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
@@ -90621,7 +90629,9 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
@@ -90675,7 +90685,9 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
@@ -90729,7 +90741,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90783,7 +90797,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90837,7 +90853,9 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
@@ -90891,7 +90909,279 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>580</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>580</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>559.9000244140625</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>565.25</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>565.25</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>18790</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>579.9500122070312</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>580.4500122070312</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>548.3499755859375</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>552.6500244140625</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>552.6500244140625</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>18127</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>560.9500122070312</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>594.9500122070312</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>560.9500122070312</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>582.6500244140625</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>582.6500244140625</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>23505</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>588.2000122070312</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>599.1500244140625</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>575</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>594.5499877929688</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>594.5499877929688</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>13947</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>599.4500122070312</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>604.5</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>582.4500122070312</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>594.1500244140625</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>594.1500244140625</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>11878</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1620"/>
+  <dimension ref="A1:R1624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90965,7 +90965,9 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
@@ -91019,7 +91021,9 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
@@ -91073,7 +91077,9 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
@@ -91127,7 +91133,9 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
@@ -91181,7 +91189,225 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>576</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>604.1500244140625</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>563.3499755859375</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>578.2000122070312</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>578.2000122070312</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>34678</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>569.5499877929688</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>584.3499755859375</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>554</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>569</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>569</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>40271</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>576.9500122070312</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>580</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>550.2000122070312</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>578.75</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>578.75</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>19341</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>570.0499877929688</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>612</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>561</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>601.25</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>48956</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1624"/>
+  <dimension ref="A1:R1629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91245,7 +91245,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91299,7 +91301,9 @@
       <c r="Q1622" t="n">
         <v>0</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
@@ -91353,7 +91357,9 @@
       <c r="Q1623" t="n">
         <v>0</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
@@ -91407,7 +91413,279 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>610.25</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>619.9500122070312</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>601.9000244140625</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>614.75</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>614.75</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>38699</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>619.9500122070312</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>637.9000244140625</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>610.5499877929688</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>615.2000122070312</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>615.2000122070312</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>27734</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>624.4500122070312</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>624.4500122070312</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>595</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>605.25</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>605.25</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>21972</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>614.3499755859375</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>698.4000244140625</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>608</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>647.0499877929688</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>647.0499877929688</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>113027</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>656.75</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>696.4000244140625</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>655</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>690.2000122070312</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>690.2000122070312</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>85161</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1629"/>
+  <dimension ref="A1:R1634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91469,7 +91469,9 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
@@ -91523,7 +91525,9 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -91577,7 +91581,9 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -91631,7 +91637,9 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
@@ -91685,7 +91693,279 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>690.2000122070312</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>722.25</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>657.5</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>663.8499755859375</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>663.8499755859375</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>45673</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>673.7999877929688</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>699</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>652.0499877929688</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>676.0499877929688</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>676.0499877929688</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>35021</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>676.0499877929688</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>684.9500122070312</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>661.5499877929688</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>671.9000244140625</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>671.9000244140625</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>19193</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>665</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>674.7000122070312</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>646.2999877929688</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>651.4000244140625</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>651.4000244140625</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>9121</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>658</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>672.0499877929688</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>640.4500122070312</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>665.2000122070312</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>665.2000122070312</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>10909</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1634"/>
+  <dimension ref="A1:R1639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91749,7 +91749,9 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
@@ -91803,7 +91805,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91857,7 +91861,9 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1633">
       <c r="A1633" s="2" t="n">
@@ -91911,7 +91917,9 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1634">
       <c r="A1634" s="2" t="n">
@@ -91965,7 +91973,279 @@
       <c r="Q1634" t="n">
         <v>0</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>675</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>694.5</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>656.5499877929688</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>663.6500244140625</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>663.6500244140625</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>15959</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>669.4500122070312</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>670</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>650.0499877929688</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>657.5</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>657.5</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>9723</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>647.7000122070312</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>724.9000244140625</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>630.0499877929688</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>684.2999877929688</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>684.2999877929688</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>134057</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>691.1500244140625</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>738.9000244140625</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>680.5499877929688</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>716.7999877929688</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>716.7999877929688</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>81436</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>716.7999877929688</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>730</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>681.25</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>686</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>686</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>52528</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1639"/>
+  <dimension ref="A1:R1644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92029,7 +92029,9 @@
       <c r="Q1635" t="n">
         <v>0</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
@@ -92083,7 +92085,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92137,7 +92141,9 @@
       <c r="Q1637" t="n">
         <v>0</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
@@ -92191,7 +92197,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92245,7 +92253,279 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>676</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>720</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>661.3499755859375</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>710.1500244140625</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>710.1500244140625</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>38380</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>717.25</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>725</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>688.9500122070312</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>698.3499755859375</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>698.3499755859375</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>55904</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>695.5999755859375</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>710</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>690.5499877929688</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>693.3499755859375</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>693.3499755859375</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>12866</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>703</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>703</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>679.0999755859375</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>684.9500122070312</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>684.9500122070312</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>16020</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>684.8499755859375</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>705</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>662.5</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>668.75</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>668.75</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>26136</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1644"/>
+  <dimension ref="A1:R1649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92189,7 +92189,7 @@
         <v>36</v>
       </c>
       <c r="O1638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1638" t="n">
         <v>0</v>
@@ -92309,7 +92309,9 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -92363,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92417,7 +92421,9 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -92471,7 +92477,9 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -92525,7 +92533,279 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>674.7999877929688</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>695</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>674.6500244140625</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>685.3499755859375</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>685.3499755859375</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>13583</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>685.3499755859375</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>686</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>644.1500244140625</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>664.7000122070312</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>664.7000122070312</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>23683</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>669.5499877929688</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>693.9500122070312</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>663.1500244140625</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>682.3499755859375</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>682.3499755859375</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>7180</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>678.8499755859375</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>685</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>653.2999877929688</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>661.0999755859375</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>661.0999755859375</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>16866</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>665.9000244140625</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>677.4500122070312</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>655</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>659.6500244140625</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>659.6500244140625</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>11264</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1649"/>
+  <dimension ref="A1:R1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92589,7 +92589,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92643,7 +92645,9 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
@@ -92697,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92751,7 +92757,9 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -92805,7 +92813,279 @@
       <c r="Q1649" t="n">
         <v>2</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>658.0999755859375</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>689.7999877929688</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>651.0499877929688</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>671.1500244140625</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>671.1500244140625</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>12812</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>676</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>693.7999877929688</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>666.0999755859375</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>682.4000244140625</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>682.4000244140625</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>10450</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>687</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>691.4000244140625</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>665.0499877929688</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>681.7000122070312</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>681.7000122070312</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>11942</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>686.4000244140625</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>655</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>662.7000122070312</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>662.7000122070312</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>12954</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>665.5</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>665.5</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>651.1500244140625</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>657.7999877929688</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>657.7999877929688</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>8291</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1654"/>
+  <dimension ref="A1:R1658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92869,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92923,7 +92925,9 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
@@ -92977,7 +92981,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -93031,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -93085,7 +93093,225 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>657.7999877929688</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>687</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>642</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>653.8499755859375</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>653.8499755859375</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>22689</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>655.0999755859375</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>662</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>633.9500122070312</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>643.3499755859375</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>643.3499755859375</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>9106</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>630.0999755859375</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>652.9500122070312</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>620.0499877929688</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>624.5</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>624.5</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>18064</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>639</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>643</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>618</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>624.0999755859375</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>624.0999755859375</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>10402</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1658"/>
+  <dimension ref="A1:R1663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93149,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93203,7 +93205,9 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -93257,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93311,7 +93317,279 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>624.0999755859375</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>630.1500244140625</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>600.0999755859375</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>600.0999755859375</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>19046</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>595</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>593.0499877929688</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>608.0999755859375</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>608.0999755859375</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>23970</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>608.4000244140625</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>619.9000244140625</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>585</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>591.4000244140625</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>591.4000244140625</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>19447</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>591.4000244140625</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>658.7999877929688</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>591.4000244140625</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>598.5499877929688</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>598.5499877929688</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>51802</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>606.7999877929688</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>619.7999877929688</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>593</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>598.5999755859375</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>598.5999755859375</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>13738</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1663"/>
+  <dimension ref="A1:R1668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93373,7 +93373,9 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -93427,7 +93429,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93481,7 +93485,9 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -93535,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93589,7 +93597,279 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>618</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>618</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>593.0499877929688</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>597.7000122070312</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>597.7000122070312</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>8996</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>594</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>606.9500122070312</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>576.2000122070312</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>578.75</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>578.75</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>25428</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>587</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>592.75</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>575</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>590.0999755859375</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>590.0999755859375</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>11585</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>593.0999755859375</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>593.0999755859375</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>575.0499877929688</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>584.9000244140625</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>584.9000244140625</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>7735</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>579</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>564.4500122070312</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>598.0499877929688</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>598.0499877929688</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>16239</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1668"/>
+  <dimension ref="A1:R1673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93653,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93707,7 +93709,9 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93761,7 +93765,9 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -93815,7 +93821,9 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -93869,7 +93877,279 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>605</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>570</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>573.75</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>573.75</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>8977</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>574</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>586</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>545.5999755859375</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>552.5</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>552.5</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>13803</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>566.5</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>576.6500244140625</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>546.5499877929688</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>562.25</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>562.25</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>12776</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>563.9000244140625</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>566.7000122070312</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>547</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>551.4000244140625</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>551.4000244140625</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>5431</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>559.7000122070312</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>565.5</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>532.3499755859375</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>558.5999755859375</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>558.5999755859375</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>13407</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1673"/>
+  <dimension ref="A1:R1678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93933,7 +93933,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93987,7 +93989,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -94041,7 +94045,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94095,7 +94101,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94149,7 +94157,279 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>579.9500122070312</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>579.9500122070312</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>532.0999755859375</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>538.75</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>538.75</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>17339</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>547.2999877929688</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>550.2000122070312</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>525</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>528</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>528</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>11873</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>561.9500122070312</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>521</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>537.2000122070312</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>537.2000122070312</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>20286</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>549.8499755859375</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>549.8499755859375</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>529.75</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>535.7999877929688</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>535.7999877929688</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>6303</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>538</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>552</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>533</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>538.9500122070312</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>538.9500122070312</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>5484</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1678"/>
+  <dimension ref="A1:R1683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94213,7 +94213,9 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -94267,7 +94269,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94321,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94375,7 +94381,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94429,7 +94437,279 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>544.9500122070312</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>544.9500122070312</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>526.5499877929688</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>530.1500244140625</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>530.1500244140625</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>11798</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>535.1500244140625</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>536.25</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>515</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>523.5499877929688</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>523.5499877929688</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>17927</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>539</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>559</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>526.0499877929688</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>548.9000244140625</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>548.9000244140625</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>15514</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>541.5499877929688</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>558.0999755859375</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>533</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>538.9000244140625</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>538.9000244140625</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>18063</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>541.5999755859375</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>541.5999755859375</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>526.6500244140625</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>526.6500244140625</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>8303</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1683"/>
+  <dimension ref="A1:R1687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94493,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94547,7 +94549,9 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94601,7 +94605,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94655,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94709,7 +94717,225 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>498</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>500</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>431.2999877929688</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>490.7999877929688</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>490.7999877929688</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>77615</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>495</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>495</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>417.7000122070312</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>464.7999877929688</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>464.7999877929688</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>67056</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>470.4500122070312</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>478</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>450</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>459.75</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>459.75</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>16073</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>469</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>470.5</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>445.25</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>451.75</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>23730</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1687"/>
+  <dimension ref="A1:R1691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94773,7 +94773,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94827,7 +94829,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94881,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94935,7 +94941,225 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>470</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>470.0499877929688</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>432.5499877929688</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>435.2999877929688</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>435.2999877929688</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>10876</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>441.7999877929688</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>456</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>438.2000122070312</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>449.0499877929688</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>449.0499877929688</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>15263</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>450.3500061035156</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>450.9500122070312</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>434.1000061035156</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>438.8999938964844</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>438.8999938964844</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>9170</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>440.1000061035156</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>442.6000061035156</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>428.7999877929688</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>439.75</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>439.75</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>11660</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1691"/>
+  <dimension ref="A1:R1696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94821,7 +94821,7 @@
         <v>46</v>
       </c>
       <c r="O1685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1685" t="n">
         <v>0</v>
@@ -94997,7 +94997,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -95051,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95105,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95159,7 +95165,279 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>439</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>465</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>439</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>459.1000061035156</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>459.1000061035156</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>21197</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>459.1000061035156</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>477.3999938964844</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>454.75</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>471.2999877929688</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>471.2999877929688</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>5869</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>485.6499938964844</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>485.6499938964844</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>468.0499877929688</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>471.6499938964844</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>471.6499938964844</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>7845</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>480.3999938964844</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>495</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>473.0499877929688</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>489.8500061035156</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>489.8500061035156</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>9702</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>495</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>511</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>486.0499877929688</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>505.2999877929688</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>505.2999877929688</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>9515</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1696"/>
+  <dimension ref="A1:R1701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95221,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95275,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95329,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95383,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95437,7 +95445,279 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>549</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>492.2999877929688</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>541.9500122070312</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>541.9500122070312</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>16349</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>569</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>569</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>534.9000244140625</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>543.4000244140625</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>543.4000244140625</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>7899</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>555</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>569.9500122070312</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>527.9500122070312</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>537.5999755859375</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>537.5999755859375</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>6680</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>555.25</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>555.25</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>534.75</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>551.9500122070312</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>551.9500122070312</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>6923</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>552.8499755859375</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>554.2999877929688</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>532.5999755859375</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>536.75</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>536.75</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>8013</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1701"/>
+  <dimension ref="A1:R1711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95501,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95555,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95601,7 +95605,7 @@
         <v>49</v>
       </c>
       <c r="O1699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1699" t="n">
         <v>0</v>
@@ -95609,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95663,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95717,7 +95725,529 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>548.7999877929688</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>548.9000244140625</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>511</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>521.7999877929688</v>
+      </c>
+      <c r="F1702" t="inlineStr"/>
+      <c r="G1702" t="n">
+        <v>17701</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>527</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>534.7999877929688</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>512.0999755859375</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>516.1500244140625</v>
+      </c>
+      <c r="F1703" t="inlineStr"/>
+      <c r="G1703" t="n">
+        <v>8882</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>523.9000244140625</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>527.9000244140625</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>514.5499877929688</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>522.7000122070312</v>
+      </c>
+      <c r="F1704" t="inlineStr"/>
+      <c r="G1704" t="n">
+        <v>7142</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>524.9000244140625</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>524.9000244140625</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>505.8500061035156</v>
+      </c>
+      <c r="F1705" t="inlineStr"/>
+      <c r="G1705" t="n">
+        <v>7224</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>505.8500061035156</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>510.1000061035156</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>490</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>503.4500122070312</v>
+      </c>
+      <c r="F1706" t="inlineStr"/>
+      <c r="G1706" t="n">
+        <v>5032</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>498.8999938964844</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>514.7000122070312</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>492</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>497.6000061035156</v>
+      </c>
+      <c r="F1707" t="inlineStr"/>
+      <c r="G1707" t="n">
+        <v>5651</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>506</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>506</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>482.5499877929688</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>489.75</v>
+      </c>
+      <c r="F1708" t="inlineStr"/>
+      <c r="G1708" t="n">
+        <v>10370</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>492.2999877929688</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>500</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>490</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>492.7000122070312</v>
+      </c>
+      <c r="F1709" t="inlineStr"/>
+      <c r="G1709" t="n">
+        <v>6974</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>493</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>498.5499877929688</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>484.0499877929688</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>485.7999877929688</v>
+      </c>
+      <c r="F1710" t="inlineStr"/>
+      <c r="G1710" t="n">
+        <v>11047</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>495</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>500.75</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>475</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>476.6499938964844</v>
+      </c>
+      <c r="F1711" t="inlineStr"/>
+      <c r="G1711" t="n">
+        <v>7205</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1711"/>
+  <dimension ref="A1:R1715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95779,7 +95779,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95831,7 +95833,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95883,7 +95887,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95935,7 +95941,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -95987,7 +95995,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96039,7 +96049,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96091,7 +96103,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96143,7 +96157,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96195,7 +96211,9 @@
       <c r="Q1710" t="n">
         <v>2</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96247,7 +96265,217 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>476</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>479.1499938964844</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>460</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>464.9500122070312</v>
+      </c>
+      <c r="F1712" t="inlineStr"/>
+      <c r="G1712" t="n">
+        <v>6883</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>467.3500061035156</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>483.3999938964844</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>464.2999877929688</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>469.2999877929688</v>
+      </c>
+      <c r="F1713" t="inlineStr"/>
+      <c r="G1713" t="n">
+        <v>5779</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>466.2000122070312</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>492.25</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>465.5499877929688</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>487.6499938964844</v>
+      </c>
+      <c r="F1714" t="inlineStr"/>
+      <c r="G1714" t="n">
+        <v>4559</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>487.6499938964844</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>491.25</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>466.9500122070312</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>486.1000061035156</v>
+      </c>
+      <c r="F1715" t="inlineStr"/>
+      <c r="G1715" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1715"/>
+  <dimension ref="A1:R1720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96319,7 +96319,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96371,7 +96373,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96423,7 +96427,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96475,7 +96481,269 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>481.7000122070312</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>488.6499938964844</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>475.5499877929688</v>
+      </c>
+      <c r="F1716" t="inlineStr"/>
+      <c r="G1716" t="n">
+        <v>9479</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>471.2000122070312</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>482.7999877929688</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>470</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>480.3500061035156</v>
+      </c>
+      <c r="F1717" t="inlineStr"/>
+      <c r="G1717" t="n">
+        <v>3304</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>476</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>500.25</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>476</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>498.5499877929688</v>
+      </c>
+      <c r="F1718" t="inlineStr"/>
+      <c r="G1718" t="n">
+        <v>7043</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>501.2000122070312</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>507.7999877929688</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>477</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>483.1499938964844</v>
+      </c>
+      <c r="F1719" t="inlineStr"/>
+      <c r="G1719" t="n">
+        <v>9754</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>485.7000122070312</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>493.8999938964844</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>475</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>478.9500122070312</v>
+      </c>
+      <c r="F1720" t="inlineStr"/>
+      <c r="G1720" t="n">
+        <v>6031</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1720"/>
+  <dimension ref="A1:R1725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96311,7 +96311,7 @@
         <v>52</v>
       </c>
       <c r="O1712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1712" t="n">
         <v>0</v>
@@ -96535,7 +96535,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96587,7 +96589,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96639,7 +96643,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96691,7 +96697,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96743,7 +96751,269 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>478.9500122070312</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>479.25</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>473.2999877929688</v>
+      </c>
+      <c r="F1721" t="inlineStr"/>
+      <c r="G1721" t="n">
+        <v>32563</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>473.2000122070312</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>482.1000061035156</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>469.1499938964844</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>476.8999938964844</v>
+      </c>
+      <c r="F1722" t="inlineStr"/>
+      <c r="G1722" t="n">
+        <v>5431</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>477</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>477</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>474.6000061035156</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>475.4500122070312</v>
+      </c>
+      <c r="F1723" t="inlineStr"/>
+      <c r="G1723" t="n">
+        <v>5681</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>475.5</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>477</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>473.75</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>474.75</v>
+      </c>
+      <c r="F1724" t="inlineStr"/>
+      <c r="G1724" t="n">
+        <v>7160</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>477.2000122070312</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>482.6000061035156</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>443</v>
+      </c>
+      <c r="F1725" t="inlineStr"/>
+      <c r="G1725" t="n">
+        <v>38549</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1725"/>
+  <dimension ref="A1:R1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96689,7 +96689,7 @@
         <v>1</v>
       </c>
       <c r="O1719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1719" t="n">
         <v>0</v>
@@ -96805,7 +96805,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96857,7 +96859,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96909,7 +96913,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -96961,7 +96967,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97013,7 +97021,269 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>441</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>453.4500122070312</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>412.4500122070312</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>420.1499938964844</v>
+      </c>
+      <c r="F1726" t="inlineStr"/>
+      <c r="G1726" t="n">
+        <v>32205</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>422.3999938964844</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>442</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>399.7000122070312</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>405.3999938964844</v>
+      </c>
+      <c r="F1727" t="inlineStr"/>
+      <c r="G1727" t="n">
+        <v>24925</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>405.5499877929688</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>429.2000122070312</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>394.9500122070312</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>400.6000061035156</v>
+      </c>
+      <c r="F1728" t="inlineStr"/>
+      <c r="G1728" t="n">
+        <v>26151</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>400.6000061035156</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>480.7000122070312</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>400.6000061035156</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>480.7000122070312</v>
+      </c>
+      <c r="F1729" t="inlineStr"/>
+      <c r="G1729" t="n">
+        <v>36543</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>530</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>550</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>461.2000122070312</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>468.1000061035156</v>
+      </c>
+      <c r="F1730" t="inlineStr"/>
+      <c r="G1730" t="n">
+        <v>181222</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1730"/>
+  <dimension ref="A1:R1735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97075,7 +97075,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97127,7 +97129,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97179,7 +97183,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97231,7 +97237,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97283,7 +97291,269 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>470</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>478.7000122070312</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>456.3500061035156</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>473.6000061035156</v>
+      </c>
+      <c r="F1731" t="inlineStr"/>
+      <c r="G1731" t="n">
+        <v>13774</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>473</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>505.8500061035156</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>470</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="F1732" t="inlineStr"/>
+      <c r="G1732" t="n">
+        <v>32088</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>492.8999938964844</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>492.8999938964844</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>462.75</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>481.25</v>
+      </c>
+      <c r="F1733" t="inlineStr"/>
+      <c r="G1733" t="n">
+        <v>6787</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>480.4500122070312</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>496.4500122070312</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>466.7000122070312</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>470.75</v>
+      </c>
+      <c r="F1734" t="inlineStr"/>
+      <c r="G1734" t="n">
+        <v>6086</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>470.2999877929688</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>473.8500061035156</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>449.5</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>450.8999938964844</v>
+      </c>
+      <c r="F1735" t="inlineStr"/>
+      <c r="G1735" t="n">
+        <v>8150</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1735"/>
+  <dimension ref="A1:R1740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97175,7 +97175,7 @@
         <v>3</v>
       </c>
       <c r="O1728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1728" t="n">
         <v>0</v>
@@ -97283,7 +97283,7 @@
         <v>3</v>
       </c>
       <c r="O1730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1730" t="n">
         <v>0</v>
@@ -97345,7 +97345,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97397,7 +97399,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97449,7 +97453,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97501,7 +97507,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97553,7 +97561,269 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>450.8999938964844</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>452.6499938964844</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>428.8999938964844</v>
+      </c>
+      <c r="F1736" t="inlineStr"/>
+      <c r="G1736" t="n">
+        <v>16061</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>448.6499938964844</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>402.0499877929688</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>431.8999938964844</v>
+      </c>
+      <c r="F1737" t="inlineStr"/>
+      <c r="G1737" t="n">
+        <v>10865</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>430</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>450.0499877929688</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>412.3500061035156</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>422.9500122070312</v>
+      </c>
+      <c r="F1738" t="inlineStr"/>
+      <c r="G1738" t="n">
+        <v>19391</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>441.5</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>421</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>429.1000061035156</v>
+      </c>
+      <c r="F1739" t="inlineStr"/>
+      <c r="G1739" t="n">
+        <v>14541</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>427.25</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>431.1000061035156</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>405.4500122070312</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>412.8999938964844</v>
+      </c>
+      <c r="F1740" t="inlineStr"/>
+      <c r="G1740" t="n">
+        <v>16851</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1740"/>
+  <dimension ref="A1:R1745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97615,7 +97615,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97667,7 +97669,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97719,7 +97723,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97771,7 +97777,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97823,7 +97831,269 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>444.9500122070312</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>444.9500122070312</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>409</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>430.1499938964844</v>
+      </c>
+      <c r="F1741" t="inlineStr"/>
+      <c r="G1741" t="n">
+        <v>8705</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>430</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>414.75</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>425.5499877929688</v>
+      </c>
+      <c r="F1742" t="inlineStr"/>
+      <c r="G1742" t="n">
+        <v>10982</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>428.4500122070312</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>433</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>414.9500122070312</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>422.25</v>
+      </c>
+      <c r="F1743" t="inlineStr"/>
+      <c r="G1743" t="n">
+        <v>10118</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>420</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>431.7000122070312</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>404.7000122070312</v>
+      </c>
+      <c r="F1744" t="inlineStr"/>
+      <c r="G1744" t="n">
+        <v>13645</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>404.8999938964844</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>414</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>392.1000061035156</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>408.8999938964844</v>
+      </c>
+      <c r="F1745" t="inlineStr"/>
+      <c r="G1745" t="n">
+        <v>17066</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1745"/>
+  <dimension ref="A1:R1750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97885,7 +97885,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -97937,7 +97939,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -97989,7 +97993,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98041,7 +98047,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98093,7 +98101,269 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>420</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>424.3500061035156</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>398.2000122070312</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>417.8500061035156</v>
+      </c>
+      <c r="F1746" t="inlineStr"/>
+      <c r="G1746" t="n">
+        <v>11599</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>407</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>409.4500122070312</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>380</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>387.8999938964844</v>
+      </c>
+      <c r="F1747" t="inlineStr"/>
+      <c r="G1747" t="n">
+        <v>13741</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>392.8999938964844</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>407.8999938964844</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>357.8500061035156</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>376.25</v>
+      </c>
+      <c r="F1748" t="inlineStr"/>
+      <c r="G1748" t="n">
+        <v>67248</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>380.8999938964844</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>423.1000061035156</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>369.9500122070312</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>382</v>
+      </c>
+      <c r="F1749" t="inlineStr"/>
+      <c r="G1749" t="n">
+        <v>54569</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>387</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>346.8999938964844</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>388.7000122070312</v>
+      </c>
+      <c r="F1750" t="inlineStr"/>
+      <c r="G1750" t="n">
+        <v>41135</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1750"/>
+  <dimension ref="A1:R1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98155,7 +98155,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98207,7 +98209,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98259,7 +98263,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98311,7 +98317,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98363,7 +98371,477 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>389.7000122070312</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>389.7000122070312</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>358.9500122070312</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>362.7000122070312</v>
+      </c>
+      <c r="F1751" t="inlineStr"/>
+      <c r="G1751" t="n">
+        <v>15258</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>362.8999938964844</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>373.9500122070312</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>348.2999877929688</v>
+      </c>
+      <c r="F1752" t="inlineStr"/>
+      <c r="G1752" t="n">
+        <v>40360</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>343.1000061035156</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>377.6499938964844</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>322.6499938964844</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="F1753" t="inlineStr"/>
+      <c r="G1753" t="n">
+        <v>25215</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>330</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>362</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>329</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>349.6000061035156</v>
+      </c>
+      <c r="F1754" t="inlineStr"/>
+      <c r="G1754" t="n">
+        <v>16851</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>349.6000061035156</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>370.1000061035156</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>349.6000061035156</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>366</v>
+      </c>
+      <c r="F1755" t="inlineStr"/>
+      <c r="G1755" t="n">
+        <v>9370</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>370.3999938964844</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>428.7000122070312</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>353.6000061035156</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>409.7000122070312</v>
+      </c>
+      <c r="F1756" t="inlineStr"/>
+      <c r="G1756" t="n">
+        <v>72734</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>409.7000122070312</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>405</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>409.7999877929688</v>
+      </c>
+      <c r="F1757" t="inlineStr"/>
+      <c r="G1757" t="n">
+        <v>10628</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>410</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>410</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>370</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>377.3999938964844</v>
+      </c>
+      <c r="F1758" t="inlineStr"/>
+      <c r="G1758" t="n">
+        <v>14149</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>371.75</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>372.0499877929688</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>341.6000061035156</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>351</v>
+      </c>
+      <c r="F1759" t="inlineStr"/>
+      <c r="G1759" t="n">
+        <v>18146</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1759"/>
+  <dimension ref="A1:R1769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="Q112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R112" t="n">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -97837,23 +97837,23 @@
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B1741" t="n">
-        <v>444.9500122070312</v>
+        <v>415.7999877929688</v>
       </c>
       <c r="C1741" t="n">
-        <v>444.9500122070312</v>
+        <v>439.7999877929688</v>
       </c>
       <c r="D1741" t="n">
-        <v>409</v>
+        <v>415.7999877929688</v>
       </c>
       <c r="E1741" t="n">
-        <v>430.1499938964844</v>
+        <v>431.6499938964844</v>
       </c>
       <c r="F1741" t="inlineStr"/>
       <c r="G1741" t="n">
-        <v>8705</v>
+        <v>6897</v>
       </c>
       <c r="H1741" t="n">
         <v>2025</v>
@@ -97862,7 +97862,7 @@
         <v>2</v>
       </c>
       <c r="J1741" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1741" t="n">
         <v>0</v>
@@ -97874,7 +97874,7 @@
         <v>0</v>
       </c>
       <c r="N1741" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1741" t="n">
         <v>0</v>
@@ -97885,29 +97885,27 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1741" t="inlineStr"/>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B1742" t="n">
-        <v>430</v>
+        <v>444.9500122070312</v>
       </c>
       <c r="C1742" t="n">
-        <v>430</v>
+        <v>444.9500122070312</v>
       </c>
       <c r="D1742" t="n">
-        <v>414.75</v>
+        <v>409</v>
       </c>
       <c r="E1742" t="n">
-        <v>425.5499877929688</v>
+        <v>430.1499938964844</v>
       </c>
       <c r="F1742" t="inlineStr"/>
       <c r="G1742" t="n">
-        <v>10982</v>
+        <v>8705</v>
       </c>
       <c r="H1742" t="n">
         <v>2025</v>
@@ -97916,7 +97914,7 @@
         <v>2</v>
       </c>
       <c r="J1742" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1742" t="n">
         <v>0</v>
@@ -97945,23 +97943,23 @@
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B1743" t="n">
-        <v>428.4500122070312</v>
+        <v>430</v>
       </c>
       <c r="C1743" t="n">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D1743" t="n">
-        <v>414.9500122070312</v>
+        <v>414.75</v>
       </c>
       <c r="E1743" t="n">
-        <v>422.25</v>
+        <v>425.5499877929688</v>
       </c>
       <c r="F1743" t="inlineStr"/>
       <c r="G1743" t="n">
-        <v>10118</v>
+        <v>10982</v>
       </c>
       <c r="H1743" t="n">
         <v>2025</v>
@@ -97970,7 +97968,7 @@
         <v>2</v>
       </c>
       <c r="J1743" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1743" t="n">
         <v>0</v>
@@ -97999,23 +97997,23 @@
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B1744" t="n">
-        <v>420</v>
+        <v>428.4500122070312</v>
       </c>
       <c r="C1744" t="n">
-        <v>431.7000122070312</v>
+        <v>433</v>
       </c>
       <c r="D1744" t="n">
-        <v>400</v>
+        <v>414.9500122070312</v>
       </c>
       <c r="E1744" t="n">
-        <v>404.7000122070312</v>
+        <v>422.25</v>
       </c>
       <c r="F1744" t="inlineStr"/>
       <c r="G1744" t="n">
-        <v>13645</v>
+        <v>10118</v>
       </c>
       <c r="H1744" t="n">
         <v>2025</v>
@@ -98024,7 +98022,7 @@
         <v>2</v>
       </c>
       <c r="J1744" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1744" t="n">
         <v>0</v>
@@ -98053,23 +98051,23 @@
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B1745" t="n">
-        <v>404.8999938964844</v>
+        <v>420</v>
       </c>
       <c r="C1745" t="n">
-        <v>414</v>
+        <v>431.7000122070312</v>
       </c>
       <c r="D1745" t="n">
-        <v>392.1000061035156</v>
+        <v>400</v>
       </c>
       <c r="E1745" t="n">
-        <v>408.8999938964844</v>
+        <v>404.7000122070312</v>
       </c>
       <c r="F1745" t="inlineStr"/>
       <c r="G1745" t="n">
-        <v>17066</v>
+        <v>13645</v>
       </c>
       <c r="H1745" t="n">
         <v>2025</v>
@@ -98078,7 +98076,7 @@
         <v>2</v>
       </c>
       <c r="J1745" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1745" t="n">
         <v>0</v>
@@ -98107,23 +98105,23 @@
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B1746" t="n">
-        <v>420</v>
+        <v>404.8999938964844</v>
       </c>
       <c r="C1746" t="n">
-        <v>424.3500061035156</v>
+        <v>414</v>
       </c>
       <c r="D1746" t="n">
-        <v>398.2000122070312</v>
+        <v>392.1000061035156</v>
       </c>
       <c r="E1746" t="n">
-        <v>417.8500061035156</v>
+        <v>408.8999938964844</v>
       </c>
       <c r="F1746" t="inlineStr"/>
       <c r="G1746" t="n">
-        <v>11599</v>
+        <v>17066</v>
       </c>
       <c r="H1746" t="n">
         <v>2025</v>
@@ -98132,7 +98130,7 @@
         <v>2</v>
       </c>
       <c r="J1746" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1746" t="n">
         <v>0</v>
@@ -98144,7 +98142,7 @@
         <v>0</v>
       </c>
       <c r="N1746" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1746" t="n">
         <v>0</v>
@@ -98161,23 +98159,23 @@
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B1747" t="n">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C1747" t="n">
-        <v>409.4500122070312</v>
+        <v>424.3500061035156</v>
       </c>
       <c r="D1747" t="n">
-        <v>380</v>
+        <v>398.2000122070312</v>
       </c>
       <c r="E1747" t="n">
-        <v>387.8999938964844</v>
+        <v>417.8500061035156</v>
       </c>
       <c r="F1747" t="inlineStr"/>
       <c r="G1747" t="n">
-        <v>13741</v>
+        <v>11599</v>
       </c>
       <c r="H1747" t="n">
         <v>2025</v>
@@ -98186,7 +98184,7 @@
         <v>2</v>
       </c>
       <c r="J1747" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1747" t="n">
         <v>0</v>
@@ -98215,23 +98213,23 @@
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B1748" t="n">
-        <v>392.8999938964844</v>
+        <v>407</v>
       </c>
       <c r="C1748" t="n">
-        <v>407.8999938964844</v>
+        <v>409.4500122070312</v>
       </c>
       <c r="D1748" t="n">
-        <v>357.8500061035156</v>
+        <v>380</v>
       </c>
       <c r="E1748" t="n">
-        <v>376.25</v>
+        <v>387.8999938964844</v>
       </c>
       <c r="F1748" t="inlineStr"/>
       <c r="G1748" t="n">
-        <v>67248</v>
+        <v>13741</v>
       </c>
       <c r="H1748" t="n">
         <v>2025</v>
@@ -98240,7 +98238,7 @@
         <v>2</v>
       </c>
       <c r="J1748" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1748" t="n">
         <v>0</v>
@@ -98269,23 +98267,23 @@
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B1749" t="n">
-        <v>380.8999938964844</v>
+        <v>392.8999938964844</v>
       </c>
       <c r="C1749" t="n">
-        <v>423.1000061035156</v>
+        <v>407.8999938964844</v>
       </c>
       <c r="D1749" t="n">
-        <v>369.9500122070312</v>
+        <v>357.8500061035156</v>
       </c>
       <c r="E1749" t="n">
-        <v>382</v>
+        <v>376.25</v>
       </c>
       <c r="F1749" t="inlineStr"/>
       <c r="G1749" t="n">
-        <v>54569</v>
+        <v>67248</v>
       </c>
       <c r="H1749" t="n">
         <v>2025</v>
@@ -98294,7 +98292,7 @@
         <v>2</v>
       </c>
       <c r="J1749" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1749" t="n">
         <v>0</v>
@@ -98323,23 +98321,23 @@
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B1750" t="n">
-        <v>387</v>
+        <v>380.8999938964844</v>
       </c>
       <c r="C1750" t="n">
-        <v>395.5</v>
+        <v>423.1000061035156</v>
       </c>
       <c r="D1750" t="n">
-        <v>346.8999938964844</v>
+        <v>369.9500122070312</v>
       </c>
       <c r="E1750" t="n">
-        <v>388.7000122070312</v>
+        <v>382</v>
       </c>
       <c r="F1750" t="inlineStr"/>
       <c r="G1750" t="n">
-        <v>41135</v>
+        <v>54569</v>
       </c>
       <c r="H1750" t="n">
         <v>2025</v>
@@ -98348,7 +98346,7 @@
         <v>2</v>
       </c>
       <c r="J1750" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1750" t="n">
         <v>0</v>
@@ -98377,23 +98375,23 @@
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B1751" t="n">
-        <v>389.7000122070312</v>
+        <v>387</v>
       </c>
       <c r="C1751" t="n">
-        <v>389.7000122070312</v>
+        <v>395.5</v>
       </c>
       <c r="D1751" t="n">
-        <v>358.9500122070312</v>
+        <v>346.8999938964844</v>
       </c>
       <c r="E1751" t="n">
-        <v>362.7000122070312</v>
+        <v>388.7000122070312</v>
       </c>
       <c r="F1751" t="inlineStr"/>
       <c r="G1751" t="n">
-        <v>15258</v>
+        <v>41135</v>
       </c>
       <c r="H1751" t="n">
         <v>2025</v>
@@ -98402,7 +98400,7 @@
         <v>2</v>
       </c>
       <c r="J1751" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1751" t="n">
         <v>0</v>
@@ -98414,7 +98412,7 @@
         <v>0</v>
       </c>
       <c r="N1751" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1751" t="n">
         <v>0</v>
@@ -98425,27 +98423,29 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B1752" t="n">
-        <v>362.8999938964844</v>
+        <v>389.7000122070312</v>
       </c>
       <c r="C1752" t="n">
-        <v>373.9500122070312</v>
+        <v>389.7000122070312</v>
       </c>
       <c r="D1752" t="n">
-        <v>335.8999938964844</v>
+        <v>358.9500122070312</v>
       </c>
       <c r="E1752" t="n">
-        <v>348.2999877929688</v>
+        <v>362.7000122070312</v>
       </c>
       <c r="F1752" t="inlineStr"/>
       <c r="G1752" t="n">
-        <v>40360</v>
+        <v>15258</v>
       </c>
       <c r="H1752" t="n">
         <v>2025</v>
@@ -98454,7 +98454,7 @@
         <v>2</v>
       </c>
       <c r="J1752" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1752" t="n">
         <v>0</v>
@@ -98477,27 +98477,29 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B1753" t="n">
-        <v>343.1000061035156</v>
+        <v>362.8999938964844</v>
       </c>
       <c r="C1753" t="n">
-        <v>377.6499938964844</v>
+        <v>373.9500122070312</v>
       </c>
       <c r="D1753" t="n">
-        <v>322.6499938964844</v>
+        <v>335.8999938964844</v>
       </c>
       <c r="E1753" t="n">
-        <v>335.8999938964844</v>
+        <v>348.2999877929688</v>
       </c>
       <c r="F1753" t="inlineStr"/>
       <c r="G1753" t="n">
-        <v>25215</v>
+        <v>40360</v>
       </c>
       <c r="H1753" t="n">
         <v>2025</v>
@@ -98506,7 +98508,7 @@
         <v>2</v>
       </c>
       <c r="J1753" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1753" t="n">
         <v>0</v>
@@ -98529,27 +98531,29 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B1754" t="n">
-        <v>330</v>
+        <v>343.1000061035156</v>
       </c>
       <c r="C1754" t="n">
-        <v>362</v>
+        <v>377.6499938964844</v>
       </c>
       <c r="D1754" t="n">
-        <v>329</v>
+        <v>322.6499938964844</v>
       </c>
       <c r="E1754" t="n">
-        <v>349.6000061035156</v>
+        <v>335.8999938964844</v>
       </c>
       <c r="F1754" t="inlineStr"/>
       <c r="G1754" t="n">
-        <v>16851</v>
+        <v>25215</v>
       </c>
       <c r="H1754" t="n">
         <v>2025</v>
@@ -98558,7 +98562,7 @@
         <v>2</v>
       </c>
       <c r="J1754" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1754" t="n">
         <v>0</v>
@@ -98573,7 +98577,7 @@
         <v>8</v>
       </c>
       <c r="O1754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1754" t="n">
         <v>0</v>
@@ -98581,27 +98585,29 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1755" t="n">
+        <v>330</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>362</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>329</v>
+      </c>
+      <c r="E1755" t="n">
         <v>349.6000061035156</v>
-      </c>
-      <c r="C1755" t="n">
-        <v>370.1000061035156</v>
-      </c>
-      <c r="D1755" t="n">
-        <v>349.6000061035156</v>
-      </c>
-      <c r="E1755" t="n">
-        <v>366</v>
       </c>
       <c r="F1755" t="inlineStr"/>
       <c r="G1755" t="n">
-        <v>9370</v>
+        <v>16851</v>
       </c>
       <c r="H1755" t="n">
         <v>2025</v>
@@ -98610,7 +98616,7 @@
         <v>2</v>
       </c>
       <c r="J1755" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1755" t="n">
         <v>0</v>
@@ -98633,27 +98639,29 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
-        <v>45712</v>
+        <v>45709</v>
       </c>
       <c r="B1756" t="n">
-        <v>370.3999938964844</v>
+        <v>349.6000061035156</v>
       </c>
       <c r="C1756" t="n">
-        <v>428.7000122070312</v>
+        <v>370.1000061035156</v>
       </c>
       <c r="D1756" t="n">
-        <v>353.6000061035156</v>
+        <v>349.6000061035156</v>
       </c>
       <c r="E1756" t="n">
-        <v>409.7000122070312</v>
+        <v>366</v>
       </c>
       <c r="F1756" t="inlineStr"/>
       <c r="G1756" t="n">
-        <v>72734</v>
+        <v>9370</v>
       </c>
       <c r="H1756" t="n">
         <v>2025</v>
@@ -98662,7 +98670,7 @@
         <v>2</v>
       </c>
       <c r="J1756" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K1756" t="n">
         <v>0</v>
@@ -98674,7 +98682,7 @@
         <v>0</v>
       </c>
       <c r="N1756" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O1756" t="n">
         <v>0</v>
@@ -98685,27 +98693,29 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
-        <v>45713</v>
+        <v>45712</v>
       </c>
       <c r="B1757" t="n">
+        <v>370.3999938964844</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>428.7000122070312</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>353.6000061035156</v>
+      </c>
+      <c r="E1757" t="n">
         <v>409.7000122070312</v>
-      </c>
-      <c r="C1757" t="n">
-        <v>430</v>
-      </c>
-      <c r="D1757" t="n">
-        <v>405</v>
-      </c>
-      <c r="E1757" t="n">
-        <v>409.7999877929688</v>
       </c>
       <c r="F1757" t="inlineStr"/>
       <c r="G1757" t="n">
-        <v>10628</v>
+        <v>72734</v>
       </c>
       <c r="H1757" t="n">
         <v>2025</v>
@@ -98714,7 +98724,7 @@
         <v>2</v>
       </c>
       <c r="J1757" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1757" t="n">
         <v>0</v>
@@ -98737,27 +98747,29 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
-        <v>45715</v>
+        <v>45713</v>
       </c>
       <c r="B1758" t="n">
-        <v>410</v>
+        <v>409.7000122070312</v>
       </c>
       <c r="C1758" t="n">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="D1758" t="n">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="E1758" t="n">
-        <v>377.3999938964844</v>
+        <v>409.7999877929688</v>
       </c>
       <c r="F1758" t="inlineStr"/>
       <c r="G1758" t="n">
-        <v>14149</v>
+        <v>10628</v>
       </c>
       <c r="H1758" t="n">
         <v>2025</v>
@@ -98766,7 +98778,7 @@
         <v>2</v>
       </c>
       <c r="J1758" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K1758" t="n">
         <v>0</v>
@@ -98781,7 +98793,7 @@
         <v>9</v>
       </c>
       <c r="O1758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1758" t="n">
         <v>0</v>
@@ -98789,27 +98801,29 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
-        <v>45716</v>
+        <v>45715</v>
       </c>
       <c r="B1759" t="n">
-        <v>371.75</v>
+        <v>410</v>
       </c>
       <c r="C1759" t="n">
-        <v>372.0499877929688</v>
+        <v>410</v>
       </c>
       <c r="D1759" t="n">
-        <v>341.6000061035156</v>
+        <v>370</v>
       </c>
       <c r="E1759" t="n">
-        <v>351</v>
+        <v>377.3999938964844</v>
       </c>
       <c r="F1759" t="inlineStr"/>
       <c r="G1759" t="n">
-        <v>18146</v>
+        <v>14149</v>
       </c>
       <c r="H1759" t="n">
         <v>2025</v>
@@ -98818,7 +98832,7 @@
         <v>2</v>
       </c>
       <c r="J1759" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1759" t="n">
         <v>0</v>
@@ -98841,7 +98855,531 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>371.75</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>372.0499877929688</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>341.6000061035156</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>351</v>
+      </c>
+      <c r="F1760" t="inlineStr"/>
+      <c r="G1760" t="n">
+        <v>18146</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>358</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>370</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>351.2000122070312</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>358.7999877929688</v>
+      </c>
+      <c r="F1761" t="inlineStr"/>
+      <c r="G1761" t="n">
+        <v>18250</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>355.1499938964844</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>380.0499877929688</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>355.1499938964844</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>374.8500061035156</v>
+      </c>
+      <c r="F1762" t="inlineStr"/>
+      <c r="G1762" t="n">
+        <v>11173</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>382.25</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>387.7000122070312</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>375.0499877929688</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>381.1000061035156</v>
+      </c>
+      <c r="F1763" t="inlineStr"/>
+      <c r="G1763" t="n">
+        <v>8166</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>383.25</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>403.6000061035156</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>381.1000061035156</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>397.0499877929688</v>
+      </c>
+      <c r="F1764" t="inlineStr"/>
+      <c r="G1764" t="n">
+        <v>23268</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>396.9500122070312</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>407.3999938964844</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>386</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>403.25</v>
+      </c>
+      <c r="F1765" t="inlineStr"/>
+      <c r="G1765" t="n">
+        <v>10318</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>407.7000122070312</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>418.9500122070312</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>365</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>366.9500122070312</v>
+      </c>
+      <c r="F1766" t="inlineStr"/>
+      <c r="G1766" t="n">
+        <v>18717</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>364.8999938964844</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>385</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>355.1000061035156</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>361.8500061035156</v>
+      </c>
+      <c r="F1767" t="inlineStr"/>
+      <c r="G1767" t="n">
+        <v>23714</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>364.25</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>369.2000122070312</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>350.6000061035156</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>358.25</v>
+      </c>
+      <c r="F1768" t="inlineStr"/>
+      <c r="G1768" t="n">
+        <v>14536</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>364</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>365.7999877929688</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>350.3500061035156</v>
+      </c>
+      <c r="F1769" t="inlineStr"/>
+      <c r="G1769" t="n">
+        <v>20789</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1769"/>
+  <dimension ref="A1:R1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97885,7 +97885,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98963,7 +98965,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99015,7 +99019,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99067,7 +99073,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99119,7 +99127,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99171,7 +99181,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99223,7 +99235,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99275,7 +99289,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99327,7 +99343,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99379,7 +99397,529 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>350</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>355.25</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>327.1000061035156</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>330.4500122070312</v>
+      </c>
+      <c r="F1770" t="inlineStr"/>
+      <c r="G1770" t="n">
+        <v>45905</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>330.4500122070312</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>330.4500122070312</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>330.4500122070312</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>330.4500122070312</v>
+      </c>
+      <c r="F1771" t="inlineStr"/>
+      <c r="G1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>339</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>353.1000061035156</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>330.2999877929688</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>332.25</v>
+      </c>
+      <c r="F1772" t="inlineStr"/>
+      <c r="G1772" t="n">
+        <v>36734</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>345.6499938964844</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>330</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>330.9500122070312</v>
+      </c>
+      <c r="F1773" t="inlineStr"/>
+      <c r="G1773" t="n">
+        <v>41099</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>342</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>332</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>336.1499938964844</v>
+      </c>
+      <c r="F1774" t="inlineStr"/>
+      <c r="G1774" t="n">
+        <v>29134</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>339.8999938964844</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>350.9500122070312</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>329</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>330.9500122070312</v>
+      </c>
+      <c r="F1775" t="inlineStr"/>
+      <c r="G1775" t="n">
+        <v>43865</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>330.9500122070312</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>345</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>328</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>330.1000061035156</v>
+      </c>
+      <c r="F1776" t="inlineStr"/>
+      <c r="G1776" t="n">
+        <v>32589</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>333</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>317.4500122070312</v>
+      </c>
+      <c r="F1777" t="inlineStr"/>
+      <c r="G1777" t="n">
+        <v>25184</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>317.4500122070312</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>319</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>304.5</v>
+      </c>
+      <c r="F1778" t="inlineStr"/>
+      <c r="G1778" t="n">
+        <v>56955</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>304.5</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>339.7000122070312</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>292.6000061035156</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>295.4500122070312</v>
+      </c>
+      <c r="F1779" t="inlineStr"/>
+      <c r="G1779" t="n">
+        <v>60630</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1779"/>
+  <dimension ref="A1:R1783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99451,7 +99451,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99503,7 +99505,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99555,7 +99559,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99607,7 +99613,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99659,7 +99667,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99711,7 +99721,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99763,7 +99775,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99815,7 +99829,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -99867,7 +99883,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -99919,7 +99937,217 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>297.8999938964844</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>317.2000122070312</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>293.0499877929688</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="F1780" t="inlineStr"/>
+      <c r="G1780" t="n">
+        <v>21604</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>320.0499877929688</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>345</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>318.4500122070312</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>338.25</v>
+      </c>
+      <c r="F1781" t="inlineStr"/>
+      <c r="G1781" t="n">
+        <v>81483</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>333.2000122070312</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>342</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>329.9500122070312</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>338.7999877929688</v>
+      </c>
+      <c r="F1782" t="inlineStr"/>
+      <c r="G1782" t="n">
+        <v>16755</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>339.75</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>344.4500122070312</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>320.2999877929688</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>327.4500122070312</v>
+      </c>
+      <c r="F1783" t="inlineStr"/>
+      <c r="G1783" t="n">
+        <v>14104</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1783"/>
+  <dimension ref="A1:R1787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99991,7 +99991,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100043,7 +100045,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100095,7 +100099,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100147,7 +100153,217 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>285</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>307.6000061035156</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>273.1499938964844</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>294.25</v>
+      </c>
+      <c r="F1784" t="inlineStr"/>
+      <c r="G1784" t="n">
+        <v>32886</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>301</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>320.6000061035156</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>299.75</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>302.25</v>
+      </c>
+      <c r="F1785" t="inlineStr"/>
+      <c r="G1785" t="n">
+        <v>10019</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>302</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>302.2999877929688</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>295</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>300.1499938964844</v>
+      </c>
+      <c r="F1786" t="inlineStr"/>
+      <c r="G1786" t="n">
+        <v>6763</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>302.5499877929688</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>355</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>302.5499877929688</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>335.2000122070312</v>
+      </c>
+      <c r="F1787" t="inlineStr"/>
+      <c r="G1787" t="n">
+        <v>26185</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1787"/>
+  <dimension ref="A1:R1790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100207,7 +100207,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100259,7 +100261,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100311,7 +100315,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100363,7 +100369,165 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>343.25</v>
+      </c>
+      <c r="F1788" t="inlineStr"/>
+      <c r="G1788" t="n">
+        <v>10359</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>339</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>356.4500122070312</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>333.8500061035156</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="F1789" t="inlineStr"/>
+      <c r="G1789" t="n">
+        <v>13852</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>338</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>347.8999938964844</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>334.3500061035156</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>339.8500061035156</v>
+      </c>
+      <c r="F1790" t="inlineStr"/>
+      <c r="G1790" t="n">
+        <v>7789</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1790"/>
+  <dimension ref="A1:R1799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100199,7 +100199,7 @@
         <v>15</v>
       </c>
       <c r="O1784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1784" t="n">
         <v>0</v>
@@ -100423,7 +100423,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100475,7 +100477,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100527,7 +100531,477 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>340</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>347</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>335</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="F1791" t="inlineStr"/>
+      <c r="G1791" t="n">
+        <v>11375</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>335.7000122070312</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>369.8500061035156</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>335.7000122070312</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>359.3500061035156</v>
+      </c>
+      <c r="F1792" t="inlineStr"/>
+      <c r="G1792" t="n">
+        <v>18487</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>370</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>370</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>351</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>355.1000061035156</v>
+      </c>
+      <c r="F1793" t="inlineStr"/>
+      <c r="G1793" t="n">
+        <v>15832</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>359.8999938964844</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>412.25</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>356.8500061035156</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>391.3500061035156</v>
+      </c>
+      <c r="F1794" t="inlineStr"/>
+      <c r="G1794" t="n">
+        <v>87626</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>399</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>399</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>359.9500122070312</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>373.8500061035156</v>
+      </c>
+      <c r="F1795" t="inlineStr"/>
+      <c r="G1795" t="n">
+        <v>21162</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>371.3500061035156</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>377.6499938964844</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>360.1499938964844</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="F1796" t="inlineStr"/>
+      <c r="G1796" t="n">
+        <v>9030</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>360.2000122070312</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>373.9500122070312</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>360.2000122070312</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>365.0499877929688</v>
+      </c>
+      <c r="F1797" t="inlineStr"/>
+      <c r="G1797" t="n">
+        <v>5933</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>370.8999938964844</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>337.2000122070312</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="F1798" t="inlineStr"/>
+      <c r="G1798" t="n">
+        <v>22479</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>342.8500061035156</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>360</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>341</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>343.2999877929688</v>
+      </c>
+      <c r="F1799" t="inlineStr"/>
+      <c r="G1799" t="n">
+        <v>6506</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BCONCEPTS.NS.xlsx
+++ b/stock_historical_data/1d/BCONCEPTS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1799"/>
+  <dimension ref="A1:R1809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="Q156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R156" t="n">
         <v>2</v>
@@ -100585,7 +100585,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100637,7 +100639,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100689,7 +100693,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100733,7 +100739,7 @@
         <v>17</v>
       </c>
       <c r="O1794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1794" t="n">
         <v>0</v>
@@ -100741,7 +100747,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100793,7 +100801,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -100845,7 +100855,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -100897,7 +100909,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -100949,7 +100963,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101001,7 +101017,529 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>344</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>365</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>339.0499877929688</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>357.2000122070312</v>
+      </c>
+      <c r="F1800" t="inlineStr"/>
+      <c r="G1800" t="n">
+        <v>9687</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>365</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>345.4500122070312</v>
+      </c>
+      <c r="F1801" t="inlineStr"/>
+      <c r="G1801" t="n">
+        <v>6074</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>339.4500122070312</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>379.7999877929688</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>337.2999877929688</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>356.3999938964844</v>
+      </c>
+      <c r="F1802" t="inlineStr"/>
+      <c r="G1802" t="n">
+        <v>17992</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>374.2000122070312</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>351.5499877929688</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>355.75</v>
+      </c>
+      <c r="F1803" t="inlineStr"/>
+      <c r="G1803" t="n">
+        <v>14207</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>358</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>363.2000122070312</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>341.3999938964844</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>355</v>
+      </c>
+      <c r="F1804" t="inlineStr"/>
+      <c r="G1804" t="n">
+        <v>5708</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>369.7000122070312</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>380.0499877929688</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>358.3999938964844</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>361.8500061035156</v>
+      </c>
+      <c r="F1805" t="inlineStr"/>
+      <c r="G1805" t="n">
+        <v>9303</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>368.9500122070312</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>378</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>358</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>359.2999877929688</v>
+      </c>
+      <c r="F1806" t="inlineStr"/>
+      <c r="G1806" t="n">
+        <v>7164</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>361.7999877929688</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>373.0499877929688</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>361.7999877929688</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>364.5499877929688</v>
+      </c>
+      <c r="F1807" t="inlineStr"/>
+      <c r="G1807" t="n">
+        <v>4908</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>370.8500061035156</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>375</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>352</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>361.1499938964844</v>
+      </c>
+      <c r="F1808" t="inlineStr"/>
+      <c r="G1808" t="n">
+        <v>12551</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>354</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>387.8500061035156</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>345.2000122070312</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>358.3999938964844</v>
+      </c>
+      <c r="F1809" t="inlineStr"/>
+      <c r="G1809" t="n">
+        <v>31743</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
